--- a/config_10.13/task_server.xlsx
+++ b/config_10.13/task_server.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_10.13\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -2223,9 +2223,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I94" sqref="I94"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B57" sqref="B57:B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4274,7 +4274,7 @@
         <v>57</v>
       </c>
       <c r="B57" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C57" s="11" t="s">
         <v>97</v>
@@ -4309,7 +4309,7 @@
         <v>58</v>
       </c>
       <c r="B58" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C58" s="11" t="s">
         <v>100</v>
@@ -4344,7 +4344,7 @@
         <v>59</v>
       </c>
       <c r="B59" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C59" s="11" t="s">
         <v>102</v>
@@ -4379,7 +4379,7 @@
         <v>60</v>
       </c>
       <c r="B60" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C60" s="11" t="s">
         <v>104</v>
@@ -46478,16 +46478,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B45:B46"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="C21:C22"/>
     <mergeCell ref="C45:C46"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B45:B46"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
